--- a/nr-add-changelog/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-changelog/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:11:50+00:00</t>
+    <t>2025-11-18T17:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-changelog/ig/ValueSet-careteam-roles-vs.xlsx
+++ b/nr-add-changelog/ig/ValueSet-careteam-roles-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:12:23+00:00</t>
+    <t>2025-11-18T17:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
